--- a/SpotifyClone-Non-NormalizedTable-fav-songs.xlsx
+++ b/SpotifyClone-Non-NormalizedTable-fav-songs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Página1"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>pessoa_usuaria</t>
   </si>
@@ -22,87 +22,159 @@
     <t>cancoes_favoritas</t>
   </si>
   <si>
-    <t>Barbara Liskov</t>
-  </si>
-  <si>
-    <t>"ALIEN SUPERSTAR", "Como Nossos Pais", "Feeling Good"</t>
-  </si>
-  <si>
-    <t>Robert Cecil Martin</t>
-  </si>
-  <si>
-    <t>"Don't Stop Me Now"</t>
-  </si>
-  <si>
-    <t>Ada Lovelace</t>
-  </si>
-  <si>
-    <t>"BREAK MY SOUL","ALIEN SUPERSTAR"</t>
-  </si>
-  <si>
-    <t>Martin Fowler</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre", "Don't Stop Me Now"</t>
-  </si>
-  <si>
-    <t>Sandi Metz</t>
-  </si>
-  <si>
-    <t>"Feeling Good", "VIRGO'S GROOVE"</t>
-  </si>
-  <si>
-    <t>Christopher Alexander</t>
-  </si>
-  <si>
-    <t>Judith Butler</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre"</t>
-  </si>
-  <si>
-    <t>Jorge Amado</t>
-  </si>
-  <si>
-    <t>"ALIEN SUPERSTAR"</t>
+    <t xml:space="preserve">Barbara Liskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ALIEN SUPERSTAR", "Como Nossos Pais", "Feeling Good"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Cecil Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Don't Stop Me Now"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada Lovelace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"BREAK MY SOUL","ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre", "Don't Stop Me Now"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandi Metz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good", "VIRGO'S GROOVE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Amado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>cancao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -111,50 +183,501 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="5" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="6" borderId="4" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="6" borderId="5" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="7" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="3" borderId="9" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="3" borderId="10" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
+    <cellStyle name="Input" xfId="6" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -190,73 +713,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -264,7 +727,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -284,9 +747,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -307,11 +770,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -320,13 +783,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -336,7 +799,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -345,7 +808,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,30 +817,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -399,11 +851,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -417,106 +867,306 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="88.86214285714286" customWidth="1" bestFit="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="20.147857142857141"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="88.862142857142857"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" style="4" width="9.140625"/>
+    <col min="3" max="7" style="4" width="9.140625"/>
+    <col bestFit="1" min="8" max="8" style="4" width="9.79296875"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="4" width="20.421875"/>
+    <col bestFit="1" min="10" max="10" style="4" width="55.140625"/>
+    <col min="11" max="16384" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="H12" s="4"/>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="H13" s="4"/>
+      <c r="I13" s="10">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="H14" s="4"/>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="H16" s="4"/>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="H17" s="4"/>
+      <c r="I17" s="10">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="H18" s="4"/>
+      <c r="I18" s="10">
+        <v>5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="H19" s="4"/>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="H20" s="4"/>
+      <c r="I20" s="10">
+        <v>8</v>
+      </c>
+      <c r="J20" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="H21" s="4"/>
+      <c r="I21" s="10">
+        <v>9</v>
+      </c>
+      <c r="J21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="H22" s="4"/>
+      <c r="I22" s="10">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>